--- a/ONCHO/Impact Assessments/Guinea Conakry/gn_oncho_pre_stop_202311_3_resultat_OV16.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Conakry/gn_oncho_pre_stop_202311_3_resultat_OV16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Guinea Conakry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A709FD76-84E7-4631-AAA9-0D8D4AAC09B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE49BA-D898-4C17-BE01-1BD2FB01922E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="289">
   <si>
     <t>type</t>
   </si>
@@ -391,9 +391,6 @@
     <t>Kerouane</t>
   </si>
   <si>
-    <t>Kerouané</t>
-  </si>
-  <si>
     <t>Kindia</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t>Kouroussa</t>
   </si>
   <si>
-    <t>Lélouma</t>
-  </si>
-  <si>
     <t>Lola</t>
   </si>
   <si>
@@ -454,18 +448,12 @@
     <t>Kindoye</t>
   </si>
   <si>
-    <t>Cu Dinguiraye</t>
-  </si>
-  <si>
     <t>Diatifere</t>
   </si>
   <si>
     <t>Banian</t>
   </si>
   <si>
-    <t>Cu Faranah</t>
-  </si>
-  <si>
     <t>Marella</t>
   </si>
   <si>
@@ -490,9 +478,6 @@
     <t>Kounsitel</t>
   </si>
   <si>
-    <t>Cu</t>
-  </si>
-  <si>
     <t>Fangamadou</t>
   </si>
   <si>
@@ -529,24 +514,15 @@
     <t>Gbangbadou</t>
   </si>
   <si>
-    <t>Gadha Oundou</t>
-  </si>
-  <si>
     <t>Matakaou</t>
   </si>
   <si>
-    <t>Cu Koundara</t>
-  </si>
-  <si>
     <t>Sambailo</t>
   </si>
   <si>
     <t>Banfele</t>
   </si>
   <si>
-    <t>Cu Kouroussa</t>
-  </si>
-  <si>
     <t>Kignero</t>
   </si>
   <si>
@@ -580,9 +556,6 @@
     <t>Salambande</t>
   </si>
   <si>
-    <t>Kegnéko</t>
-  </si>
-  <si>
     <t>Ourekaba</t>
   </si>
   <si>
@@ -601,9 +574,6 @@
     <t>Yalenzou</t>
   </si>
   <si>
-    <t>Cu Siguiri</t>
-  </si>
-  <si>
     <t>Kintignan</t>
   </si>
   <si>
@@ -670,9 +640,6 @@
     <t>Fandanda</t>
   </si>
   <si>
-    <t>Wambèrè</t>
-  </si>
-  <si>
     <t>Kouya Laya</t>
   </si>
   <si>
@@ -697,9 +664,6 @@
     <t>Garassou</t>
   </si>
   <si>
-    <t>Pont Tominé</t>
-  </si>
-  <si>
     <t>Tiriro</t>
   </si>
   <si>
@@ -721,9 +685,6 @@
     <t>Balabori</t>
   </si>
   <si>
-    <t>Lélé</t>
-  </si>
-  <si>
     <t>Farabalen</t>
   </si>
   <si>
@@ -754,9 +715,6 @@
     <t>Soumayereya</t>
   </si>
   <si>
-    <t>Haidarayabhé</t>
-  </si>
-  <si>
     <t>Sansambaya</t>
   </si>
   <si>
@@ -796,18 +754,12 @@
     <t>Bafing</t>
   </si>
   <si>
-    <t>Bagbé</t>
-  </si>
-  <si>
     <t>Bakoye</t>
   </si>
   <si>
     <t>Bale</t>
   </si>
   <si>
-    <t xml:space="preserve">Dion </t>
-  </si>
-  <si>
     <t>Djilemba</t>
   </si>
   <si>
@@ -838,15 +790,9 @@
     <t>Koda</t>
   </si>
   <si>
-    <t>Kolenté</t>
-  </si>
-  <si>
     <t>Koliba</t>
   </si>
   <si>
-    <t>Koliba bac</t>
-  </si>
-  <si>
     <t>Komba</t>
   </si>
   <si>
@@ -865,12 +811,6 @@
     <t>Makona</t>
   </si>
   <si>
-    <t>Mano riva</t>
-  </si>
-  <si>
-    <t>Méli</t>
-  </si>
-  <si>
     <t>Milo</t>
   </si>
   <si>
@@ -886,9 +826,6 @@
     <t>Niger</t>
   </si>
   <si>
-    <t>Oulé</t>
-  </si>
-  <si>
     <t>Oundou</t>
   </si>
   <si>
@@ -899,6 +836,69 @@
   </si>
   <si>
     <t>Tinkisso</t>
+  </si>
+  <si>
+    <t>Lelouma</t>
+  </si>
+  <si>
+    <t>Gbakedou</t>
+  </si>
+  <si>
+    <t>CU Dinguiraye</t>
+  </si>
+  <si>
+    <t>CU Faranah</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Yende</t>
+  </si>
+  <si>
+    <t>Gadha oundou</t>
+  </si>
+  <si>
+    <t>CU Koundara</t>
+  </si>
+  <si>
+    <t>CU Kouroussa</t>
+  </si>
+  <si>
+    <t>Kegneko</t>
+  </si>
+  <si>
+    <t>CU Siguiri</t>
+  </si>
+  <si>
+    <t>Wambere</t>
+  </si>
+  <si>
+    <t>Pont Tomine</t>
+  </si>
+  <si>
+    <t>Lele</t>
+  </si>
+  <si>
+    <t>Haidarayabhe</t>
+  </si>
+  <si>
+    <t>Bagbe</t>
+  </si>
+  <si>
+    <t>Dion</t>
+  </si>
+  <si>
+    <t>Koliba Bac</t>
+  </si>
+  <si>
+    <t>Mano Riva</t>
+  </si>
+  <si>
+    <t>Meli</t>
+  </si>
+  <si>
+    <t>Oule</t>
   </si>
 </sst>
 </file>
@@ -1171,17 +1171,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1472,7 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1865,9 +1855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G540"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD276"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2319,10 +2309,10 @@
         <v>55</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="40"/>
@@ -2332,10 +2322,10 @@
         <v>55</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="40"/>
@@ -2345,10 +2335,10 @@
         <v>55</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="40"/>
@@ -2358,10 +2348,10 @@
         <v>55</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="40"/>
@@ -2371,10 +2361,10 @@
         <v>55</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="39"/>
       <c r="E44" s="40"/>
@@ -2384,10 +2374,10 @@
         <v>55</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="40"/>
@@ -2397,10 +2387,10 @@
         <v>55</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" s="39"/>
       <c r="E46" s="40"/>
@@ -2410,10 +2400,10 @@
         <v>55</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="40"/>
@@ -2423,10 +2413,10 @@
         <v>55</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D48" s="39"/>
       <c r="E48" s="40"/>
@@ -2436,32 +2426,34 @@
         <v>55</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="39"/>
       <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>134</v>
-      </c>
+      <c r="A50" s="32"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="39"/>
       <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
+      <c r="A51" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5">
@@ -2469,10 +2461,10 @@
         <v>56</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D52" s="42" t="s">
         <v>110</v>
@@ -2484,10 +2476,10 @@
         <v>56</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="D53" s="42" t="s">
         <v>110</v>
@@ -2499,13 +2491,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E54" s="34"/>
     </row>
@@ -2514,10 +2506,10 @@
         <v>56</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="42" t="s">
         <v>111</v>
@@ -2529,10 +2521,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D56" s="42" t="s">
         <v>111</v>
@@ -2544,13 +2536,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" s="34"/>
     </row>
@@ -2559,10 +2551,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D58" s="42" t="s">
         <v>112</v>
@@ -2574,13 +2566,13 @@
         <v>56</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E59" s="34"/>
     </row>
@@ -2589,10 +2581,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
       <c r="D60" s="42" t="s">
         <v>113</v>
@@ -2604,10 +2596,10 @@
         <v>56</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D61" s="42" t="s">
         <v>113</v>
@@ -2619,10 +2611,10 @@
         <v>56</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D62" s="42" t="s">
         <v>113</v>
@@ -2634,13 +2626,13 @@
         <v>56</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E63" s="34"/>
     </row>
@@ -2649,10 +2641,10 @@
         <v>56</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D64" s="42" t="s">
         <v>114</v>
@@ -2664,13 +2656,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E65" s="34"/>
     </row>
@@ -2679,10 +2671,10 @@
         <v>56</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D66" s="42" t="s">
         <v>115</v>
@@ -2694,10 +2686,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D67" s="42" t="s">
         <v>115</v>
@@ -2709,10 +2701,10 @@
         <v>56</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D68" s="42" t="s">
         <v>115</v>
@@ -2724,13 +2716,13 @@
         <v>56</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E69" s="34"/>
     </row>
@@ -2739,10 +2731,10 @@
         <v>56</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D70" s="42" t="s">
         <v>116</v>
@@ -2754,13 +2746,13 @@
         <v>56</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E71" s="34"/>
     </row>
@@ -2769,10 +2761,10 @@
         <v>56</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D72" s="42" t="s">
         <v>117</v>
@@ -2784,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D73" s="42" t="s">
         <v>117</v>
@@ -2799,10 +2791,10 @@
         <v>56</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D74" s="42" t="s">
         <v>117</v>
@@ -2814,10 +2806,10 @@
         <v>56</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D75" s="42" t="s">
         <v>117</v>
@@ -2829,13 +2821,13 @@
         <v>56</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E76" s="34"/>
     </row>
@@ -2844,10 +2836,10 @@
         <v>56</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D77" s="42" t="s">
         <v>118</v>
@@ -2859,10 +2851,10 @@
         <v>56</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D78" s="42" t="s">
         <v>119</v>
@@ -2874,13 +2866,13 @@
         <v>56</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E79" s="34"/>
     </row>
@@ -2889,10 +2881,10 @@
         <v>56</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D80" s="42" t="s">
         <v>120</v>
@@ -2904,13 +2896,13 @@
         <v>56</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E81" s="34"/>
     </row>
@@ -2919,13 +2911,13 @@
         <v>56</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E82" s="34"/>
     </row>
@@ -2934,10 +2926,10 @@
         <v>56</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="D83" s="42" t="s">
         <v>121</v>
@@ -2949,13 +2941,13 @@
         <v>56</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E84" s="34"/>
     </row>
@@ -2964,10 +2956,10 @@
         <v>56</v>
       </c>
       <c r="B85" s="42" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="D85" s="42" t="s">
         <v>122</v>
@@ -2979,13 +2971,13 @@
         <v>56</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E86" s="34"/>
     </row>
@@ -2994,10 +2986,10 @@
         <v>56</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D87" s="42" t="s">
         <v>123</v>
@@ -3009,13 +3001,13 @@
         <v>56</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E88" s="34"/>
     </row>
@@ -3024,13 +3016,13 @@
         <v>56</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E89" s="34"/>
     </row>
@@ -3039,13 +3031,13 @@
         <v>56</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E90" s="34"/>
     </row>
@@ -3054,13 +3046,13 @@
         <v>56</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E91" s="34"/>
     </row>
@@ -3069,13 +3061,13 @@
         <v>56</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="E92" s="34"/>
     </row>
@@ -3084,13 +3076,13 @@
         <v>56</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E93" s="34"/>
     </row>
@@ -3099,13 +3091,13 @@
         <v>56</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D94" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E94" s="34"/>
     </row>
@@ -3114,13 +3106,13 @@
         <v>56</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E95" s="34"/>
     </row>
@@ -3129,13 +3121,13 @@
         <v>56</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E96" s="34"/>
     </row>
@@ -3144,13 +3136,13 @@
         <v>56</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E97" s="34"/>
     </row>
@@ -3159,13 +3151,13 @@
         <v>56</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E98" s="34"/>
     </row>
@@ -3174,13 +3166,13 @@
         <v>56</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E99" s="34"/>
     </row>
@@ -3189,13 +3181,13 @@
         <v>56</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E100" s="34"/>
     </row>
@@ -3204,13 +3196,13 @@
         <v>56</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E101" s="34"/>
     </row>
@@ -3219,13 +3211,13 @@
         <v>56</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E102" s="34"/>
     </row>
@@ -3234,13 +3226,13 @@
         <v>56</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E103" s="34"/>
     </row>
@@ -3249,13 +3241,13 @@
         <v>56</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E104" s="34"/>
     </row>
@@ -3264,13 +3256,13 @@
         <v>56</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E105" s="34"/>
     </row>
@@ -3279,13 +3271,13 @@
         <v>56</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E106" s="34"/>
     </row>
@@ -3294,13 +3286,13 @@
         <v>56</v>
       </c>
       <c r="B107" s="42" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E107" s="34"/>
     </row>
@@ -3309,13 +3301,13 @@
         <v>56</v>
       </c>
       <c r="B108" s="42" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E108" s="34"/>
     </row>
@@ -3324,13 +3316,13 @@
         <v>56</v>
       </c>
       <c r="B109" s="42" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E109" s="34"/>
     </row>
@@ -3339,13 +3331,13 @@
         <v>56</v>
       </c>
       <c r="B110" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E110" s="34"/>
     </row>
@@ -3354,51 +3346,51 @@
         <v>56</v>
       </c>
       <c r="B111" s="42" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E111" s="34"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B112" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C112" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>134</v>
-      </c>
+      <c r="A112" s="41"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
       <c r="E112" s="34"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="41"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
+      <c r="A113" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="42" t="s">
+        <v>184</v>
+      </c>
       <c r="D113" s="42"/>
-      <c r="E113" s="34"/>
+      <c r="E113" s="34" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D114" s="34"/>
       <c r="E114" s="34" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3406,14 +3398,14 @@
         <v>20</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D115" s="34"/>
       <c r="E115" s="34" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3421,14 +3413,14 @@
         <v>20</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D116" s="34"/>
       <c r="E116" s="34" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3436,14 +3428,14 @@
         <v>20</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D117" s="34"/>
       <c r="E117" s="34" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3451,14 +3443,14 @@
         <v>20</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D118" s="34"/>
       <c r="E118" s="34" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3466,14 +3458,14 @@
         <v>20</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D119" s="34"/>
       <c r="E119" s="34" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3481,14 +3473,14 @@
         <v>20</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D120" s="34"/>
       <c r="E120" s="34" t="s">
-        <v>137</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3496,14 +3488,14 @@
         <v>20</v>
       </c>
       <c r="B121" s="34" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D121" s="34"/>
       <c r="E121" s="34" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3511,14 +3503,14 @@
         <v>20</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D122" s="34"/>
       <c r="E122" s="34" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3526,14 +3518,14 @@
         <v>20</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="D123" s="34"/>
       <c r="E123" s="34" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3541,14 +3533,14 @@
         <v>20</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D124" s="34"/>
       <c r="E124" s="34" t="s">
-        <v>143</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3556,14 +3548,14 @@
         <v>20</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="D125" s="34"/>
       <c r="E125" s="34" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3571,14 +3563,14 @@
         <v>20</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D126" s="34"/>
       <c r="E126" s="34" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3586,14 +3578,14 @@
         <v>20</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D127" s="34"/>
       <c r="E127" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3601,14 +3593,14 @@
         <v>20</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D128" s="34"/>
       <c r="E128" s="34" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3616,14 +3608,14 @@
         <v>20</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D129" s="34"/>
       <c r="E129" s="34" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3631,14 +3623,14 @@
         <v>20</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C130" s="34" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D130" s="34"/>
       <c r="E130" s="34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3646,14 +3638,14 @@
         <v>20</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="D131" s="34"/>
       <c r="E131" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3661,14 +3653,14 @@
         <v>20</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D132" s="34"/>
       <c r="E132" s="34" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3676,14 +3668,14 @@
         <v>20</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="D133" s="34"/>
       <c r="E133" s="34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3691,14 +3683,14 @@
         <v>20</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D134" s="34"/>
       <c r="E134" s="34" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3706,14 +3698,14 @@
         <v>20</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="D135" s="34"/>
       <c r="E135" s="34" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3721,14 +3713,14 @@
         <v>20</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D136" s="34"/>
       <c r="E136" s="34" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3736,14 +3728,14 @@
         <v>20</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D137" s="34"/>
       <c r="E137" s="34" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3751,14 +3743,14 @@
         <v>20</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D138" s="34"/>
       <c r="E138" s="34" t="s">
-        <v>148</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3766,14 +3758,14 @@
         <v>20</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="D139" s="34"/>
       <c r="E139" s="34" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3781,14 +3773,14 @@
         <v>20</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D140" s="34"/>
       <c r="E140" s="34" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3796,14 +3788,14 @@
         <v>20</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C141" s="34" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D141" s="34"/>
       <c r="E141" s="34" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3811,14 +3803,14 @@
         <v>20</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="C142" s="34" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D142" s="34"/>
       <c r="E142" s="34" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3826,14 +3818,14 @@
         <v>20</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D143" s="34"/>
       <c r="E143" s="34" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3841,14 +3833,14 @@
         <v>20</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D144" s="34"/>
       <c r="E144" s="34" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3856,14 +3848,14 @@
         <v>20</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D145" s="34"/>
       <c r="E145" s="34" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3871,14 +3863,14 @@
         <v>20</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D146" s="34"/>
       <c r="E146" s="34" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3886,14 +3878,14 @@
         <v>20</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D147" s="34"/>
       <c r="E147" s="34" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3901,14 +3893,14 @@
         <v>20</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="D148" s="34"/>
       <c r="E148" s="34" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3916,14 +3908,14 @@
         <v>20</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C149" s="34" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D149" s="34"/>
       <c r="E149" s="34" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3931,14 +3923,14 @@
         <v>20</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="C150" s="34" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="D150" s="34"/>
       <c r="E150" s="34" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3946,14 +3938,14 @@
         <v>20</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D151" s="34"/>
       <c r="E151" s="34" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3961,14 +3953,14 @@
         <v>20</v>
       </c>
       <c r="B152" s="34" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D152" s="34"/>
       <c r="E152" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3976,14 +3968,14 @@
         <v>20</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D153" s="34"/>
       <c r="E153" s="34" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3991,14 +3983,14 @@
         <v>20</v>
       </c>
       <c r="B154" s="34" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D154" s="34"/>
       <c r="E154" s="34" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4006,14 +3998,14 @@
         <v>20</v>
       </c>
       <c r="B155" s="34" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C155" s="34" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D155" s="34"/>
       <c r="E155" s="34" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4021,14 +4013,14 @@
         <v>20</v>
       </c>
       <c r="B156" s="34" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D156" s="34"/>
       <c r="E156" s="34" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4036,14 +4028,14 @@
         <v>20</v>
       </c>
       <c r="B157" s="34" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D157" s="34"/>
       <c r="E157" s="34" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4051,14 +4043,14 @@
         <v>20</v>
       </c>
       <c r="B158" s="34" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D158" s="34"/>
       <c r="E158" s="34" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4066,14 +4058,14 @@
         <v>20</v>
       </c>
       <c r="B159" s="34" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D159" s="34"/>
       <c r="E159" s="34" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4081,14 +4073,14 @@
         <v>20</v>
       </c>
       <c r="B160" s="34" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D160" s="34"/>
       <c r="E160" s="34" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4096,14 +4088,14 @@
         <v>20</v>
       </c>
       <c r="B161" s="34" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="C161" s="34" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="D161" s="34"/>
       <c r="E161" s="34" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4111,14 +4103,14 @@
         <v>20</v>
       </c>
       <c r="B162" s="34" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C162" s="34" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D162" s="34"/>
       <c r="E162" s="34" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4126,14 +4118,14 @@
         <v>20</v>
       </c>
       <c r="B163" s="34" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C163" s="34" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D163" s="34"/>
       <c r="E163" s="34" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4141,14 +4133,14 @@
         <v>20</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C164" s="34" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4156,14 +4148,14 @@
         <v>20</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4171,14 +4163,14 @@
         <v>20</v>
       </c>
       <c r="B166" s="34" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D166" s="34"/>
       <c r="E166" s="34" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4186,14 +4178,14 @@
         <v>20</v>
       </c>
       <c r="B167" s="34" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C167" s="34" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D167" s="34"/>
       <c r="E167" s="34" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4201,14 +4193,14 @@
         <v>20</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D168" s="34"/>
       <c r="E168" s="34" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4216,14 +4208,14 @@
         <v>20</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D169" s="34"/>
       <c r="E169" s="34" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4231,14 +4223,14 @@
         <v>20</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D170" s="34"/>
       <c r="E170" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4246,14 +4238,14 @@
         <v>20</v>
       </c>
       <c r="B171" s="34" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D171" s="34"/>
       <c r="E171" s="34" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4261,14 +4253,14 @@
         <v>20</v>
       </c>
       <c r="B172" s="34" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C172" s="34" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D172" s="34"/>
       <c r="E172" s="34" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4276,14 +4268,14 @@
         <v>20</v>
       </c>
       <c r="B173" s="34" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="D173" s="34"/>
       <c r="E173" s="34" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4291,14 +4283,14 @@
         <v>20</v>
       </c>
       <c r="B174" s="34" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="C174" s="34" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="D174" s="34"/>
       <c r="E174" s="34" t="s">
-        <v>145</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4306,14 +4298,14 @@
         <v>20</v>
       </c>
       <c r="B175" s="34" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="C175" s="34" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="D175" s="34"/>
       <c r="E175" s="34" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4321,14 +4313,14 @@
         <v>20</v>
       </c>
       <c r="B176" s="34" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="C176" s="34" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="D176" s="34"/>
       <c r="E176" s="34" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4343,7 +4335,7 @@
       </c>
       <c r="D177" s="34"/>
       <c r="E177" s="34" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4358,7 +4350,7 @@
       </c>
       <c r="D178" s="34"/>
       <c r="E178" s="34" t="s">
-        <v>135</v>
+        <v>269</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4373,7 +4365,7 @@
       </c>
       <c r="D179" s="34"/>
       <c r="E179" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4388,7 +4380,7 @@
       </c>
       <c r="D180" s="34"/>
       <c r="E180" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4403,7 +4395,7 @@
       </c>
       <c r="D181" s="34"/>
       <c r="E181" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4418,7 +4410,7 @@
       </c>
       <c r="D182" s="34"/>
       <c r="E182" s="34" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4433,7 +4425,7 @@
       </c>
       <c r="D183" s="34"/>
       <c r="E183" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4448,7 +4440,7 @@
       </c>
       <c r="D184" s="34"/>
       <c r="E184" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4463,7 +4455,7 @@
       </c>
       <c r="D185" s="34"/>
       <c r="E185" s="34" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4478,7 +4470,7 @@
       </c>
       <c r="D186" s="34"/>
       <c r="E186" s="34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4493,7 +4485,7 @@
       </c>
       <c r="D187" s="34"/>
       <c r="E187" s="34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4508,7 +4500,7 @@
       </c>
       <c r="D188" s="34"/>
       <c r="E188" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4523,7 +4515,7 @@
       </c>
       <c r="D189" s="34"/>
       <c r="E189" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="D190" s="34"/>
       <c r="E190" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4553,7 +4545,7 @@
       </c>
       <c r="D191" s="34"/>
       <c r="E191" s="34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4567,7 +4559,7 @@
         <v>99</v>
       </c>
       <c r="E192" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4581,7 +4573,7 @@
         <v>99</v>
       </c>
       <c r="E193" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4595,7 +4587,7 @@
         <v>99</v>
       </c>
       <c r="E194" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4609,7 +4601,7 @@
         <v>99</v>
       </c>
       <c r="E195" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4623,7 +4615,7 @@
         <v>99</v>
       </c>
       <c r="E196" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4637,7 +4629,7 @@
         <v>99</v>
       </c>
       <c r="E197" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4651,7 +4643,7 @@
         <v>99</v>
       </c>
       <c r="E198" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4665,7 +4657,7 @@
         <v>99</v>
       </c>
       <c r="E199" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4679,7 +4671,7 @@
         <v>99</v>
       </c>
       <c r="E200" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4693,7 +4685,7 @@
         <v>99</v>
       </c>
       <c r="E201" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4707,7 +4699,7 @@
         <v>99</v>
       </c>
       <c r="E202" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4721,7 +4713,7 @@
         <v>99</v>
       </c>
       <c r="E203" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4735,7 +4727,7 @@
         <v>99</v>
       </c>
       <c r="E204" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4749,7 +4741,7 @@
         <v>99</v>
       </c>
       <c r="E205" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4763,7 +4755,7 @@
         <v>99</v>
       </c>
       <c r="E206" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4777,7 +4769,7 @@
         <v>99</v>
       </c>
       <c r="E207" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4791,7 +4783,7 @@
         <v>99</v>
       </c>
       <c r="E208" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4805,7 +4797,7 @@
         <v>99</v>
       </c>
       <c r="E209" s="42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4819,7 +4811,7 @@
         <v>99</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4833,7 +4825,7 @@
         <v>99</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4847,7 +4839,7 @@
         <v>99</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4861,7 +4853,7 @@
         <v>99</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4875,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4889,7 +4881,7 @@
         <v>99</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4903,7 +4895,7 @@
         <v>99</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4917,7 +4909,7 @@
         <v>99</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4931,7 +4923,7 @@
         <v>99</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4945,7 +4937,7 @@
         <v>99</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4959,7 +4951,7 @@
         <v>99</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4973,7 +4965,7 @@
         <v>99</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4987,7 +4979,7 @@
         <v>99</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5001,7 +4993,7 @@
         <v>99</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5015,7 +5007,7 @@
         <v>99</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5029,7 +5021,7 @@
         <v>99</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5043,7 +5035,7 @@
         <v>99</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5057,7 +5049,7 @@
         <v>99</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5071,7 +5063,7 @@
         <v>99</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5085,7 +5077,7 @@
         <v>99</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5099,7 +5091,7 @@
         <v>99</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5113,7 +5105,7 @@
         <v>99</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5127,7 +5119,7 @@
         <v>99</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5141,7 +5133,7 @@
         <v>99</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5155,7 +5147,7 @@
         <v>99</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5169,7 +5161,7 @@
         <v>99</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5183,25 +5175,25 @@
         <v>99</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B237" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C237" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="A237" s="41"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="34"/>
+      <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="2"/>
+      <c r="A238" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B238" t="s">
+        <v>239</v>
+      </c>
+      <c r="C238" t="s">
+        <v>239</v>
+      </c>
       <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5">
@@ -5209,10 +5201,10 @@
         <v>57</v>
       </c>
       <c r="B239" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="C239" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5220,10 +5212,10 @@
         <v>57</v>
       </c>
       <c r="B240" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C240" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5231,10 +5223,10 @@
         <v>57</v>
       </c>
       <c r="B241" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C241" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5242,10 +5234,10 @@
         <v>57</v>
       </c>
       <c r="B242" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="C242" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5253,10 +5245,10 @@
         <v>57</v>
       </c>
       <c r="B243" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C243" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5264,10 +5256,10 @@
         <v>57</v>
       </c>
       <c r="B244" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="C244" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5275,10 +5267,10 @@
         <v>57</v>
       </c>
       <c r="B245" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C245" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5286,10 +5278,10 @@
         <v>57</v>
       </c>
       <c r="B246" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C246" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5297,10 +5289,10 @@
         <v>57</v>
       </c>
       <c r="B247" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C247" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5308,10 +5300,10 @@
         <v>57</v>
       </c>
       <c r="B248" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C248" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5319,10 +5311,10 @@
         <v>57</v>
       </c>
       <c r="B249" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C249" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5330,10 +5322,10 @@
         <v>57</v>
       </c>
       <c r="B250" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C250" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5341,10 +5333,10 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C251" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5352,10 +5344,10 @@
         <v>57</v>
       </c>
       <c r="B252" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C252" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5363,10 +5355,10 @@
         <v>57</v>
       </c>
       <c r="B253" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C253" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5374,10 +5366,10 @@
         <v>57</v>
       </c>
       <c r="B254" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C254" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5385,10 +5377,10 @@
         <v>57</v>
       </c>
       <c r="B255" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="C255" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5396,10 +5388,10 @@
         <v>57</v>
       </c>
       <c r="B256" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C256" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5407,10 +5399,10 @@
         <v>57</v>
       </c>
       <c r="B257" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C257" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5418,10 +5410,10 @@
         <v>57</v>
       </c>
       <c r="B258" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C258" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5429,10 +5421,10 @@
         <v>57</v>
       </c>
       <c r="B259" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C259" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5440,10 +5432,10 @@
         <v>57</v>
       </c>
       <c r="B260" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C260" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5451,10 +5443,10 @@
         <v>57</v>
       </c>
       <c r="B261" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C261" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5462,10 +5454,10 @@
         <v>57</v>
       </c>
       <c r="B262" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C262" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5473,10 +5465,10 @@
         <v>57</v>
       </c>
       <c r="B263" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C263" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5484,10 +5476,10 @@
         <v>57</v>
       </c>
       <c r="B264" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C264" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5495,10 +5487,10 @@
         <v>57</v>
       </c>
       <c r="B265" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C265" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5506,10 +5498,10 @@
         <v>57</v>
       </c>
       <c r="B266" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C266" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5517,10 +5509,10 @@
         <v>57</v>
       </c>
       <c r="B267" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C267" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5528,10 +5520,10 @@
         <v>57</v>
       </c>
       <c r="B268" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C268" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5539,10 +5531,10 @@
         <v>57</v>
       </c>
       <c r="B269" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C269" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5550,10 +5542,10 @@
         <v>57</v>
       </c>
       <c r="B270" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C270" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5561,10 +5553,10 @@
         <v>57</v>
       </c>
       <c r="B271" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C271" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5572,10 +5564,10 @@
         <v>57</v>
       </c>
       <c r="B272" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C272" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5583,10 +5575,10 @@
         <v>57</v>
       </c>
       <c r="B273" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C273" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5594,10 +5586,10 @@
         <v>57</v>
       </c>
       <c r="B274" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5605,22 +5597,14 @@
         <v>57</v>
       </c>
       <c r="B275" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C275" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B276" t="s">
-        <v>288</v>
-      </c>
-      <c r="C276" t="s">
-        <v>288</v>
-      </c>
+      <c r="A276" s="2"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="11"/>
